--- a/data/outputs/excel/ai_cluster_report.xlsx
+++ b/data/outputs/excel/ai_cluster_report.xlsx
@@ -490,20 +490,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>内容面では、体験学習の定義と学生への具体的な影響を複数例で説明し、実際の授業活動を挙げている。構造面では、定義→影響→具体例→結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語と専門用語を混ぜつつ、定型表現（例：『…という意味です』、『…という活動です』）が多用され、語彙は比較的標準的で人間らしいバラつきはあるものの、テンプレート的なパターンが見られる。</t>
+          <t>内容面では「体験学習」の定義を明確に提示し、学生への影響を複数の具体例（科学実験、植樹活動など）で説明。構造面は導入・定義・影響の箇条書き・具体事例・活動設計・結論という論理的段落構成。文体はフォーマルで丁寧ながらも、箇条書きや番号付きリストを多用し、学術的語彙と実際の教材・ページ番号などを引用している。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>回答は定義・例・結論という典型的な構成を持ち、語彙や表現が標準化されている点でAIが生成しやすいパターンに近い。だが、具体的な授業例や個別の感想が入っているため、完全に機械的ではなく人間らしいバラつきもある。したがって、0.6という中程度のスコアを付けた。</t>
+          <t>回答は明確な構造と箇条書き、定量的な具体例で組み立てられ、AIが生成するテンプレート的回答と類似している点が多い。一方で教材名やページ番号、個人の経験に基づく詳細な描写があり、完全に機械的ではないため、人間らしさを保っている。したがって、AIに近いが完全ではないと判断し、0.6と評価しました。</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>{
-  "summary": "内容面では、体験学習の定義と学生への具体的な影響を複数例で説明し、実際の授業活動を挙げている。構造面では、定義→影響→具体例→結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語と専門用語を混ぜつつ、定型表現（例：『…という意味です』、『…という活動です』）が多用され、語彙は比較的標準的で人間らしいバラつきはあるものの、テンプレート的なパターンが見られる。",
+  "summary": "内容面では「体験学習」の定義を明確に提示し、学生への影響を複数の具体例（科学実験、植樹活動など）で説明。構造面は導入・定義・影響の箇条書き・具体事例・活動設計・結論という論理的段落構成。文体はフォーマルで丁寧ながらも、箇条書きや番号付きリストを多用し、学術的語彙と実際の教材・ページ番号などを引用している。",
   "ai_template_likeness": 0.6,
-  "comment": "回答は定義・例・結論という典型的な構成を持ち、語彙や表現が標準化されている点でAIが生成しやすいパターンに近い。だが、具体的な授業例や個別の感想が入っているため、完全に機械的ではなく人間らしいバラつきもある。したがって、0.6という中程度のスコアを付けた。"
+  "comment": "回答は明確な構造と箇条書き、定量的な具体例で組み立てられ、AIが生成するテンプレート的回答と類似している点が多い。一方で教材名やページ番号、個人の経験に基づく詳細な描写があり、完全に機械的ではないため、人間らしさを保っている。したがって、AIに近いが完全ではないと判断し、0.6と評価しました。"
 }</t>
         </is>
       </c>
@@ -527,20 +527,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>内容面では、体験学習の定義と学生への具体的な影響を複数例で説明し、実際の授業活動を挙げている。構造面では、定義→影響→具体例→結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語と専門用語を混ぜつつ、定型表現（例：『…という意味です』、『…という活動です』）が多用され、語彙は比較的標準的で人間らしいバラつきはあるものの、テンプレート的なパターンが見られる。</t>
+          <t>内容面では「体験学習」の定義を明確に提示し、学生への影響を複数の具体例（科学実験、植樹活動など）で説明。構造面は導入・定義・影響の箇条書き・具体事例・活動設計・結論という論理的段落構成。文体はフォーマルで丁寧ながらも、箇条書きや番号付きリストを多用し、学術的語彙と実際の教材・ページ番号などを引用している。</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>回答は定義・例・結論という典型的な構成を持ち、語彙や表現が標準化されている点でAIが生成しやすいパターンに近い。だが、具体的な授業例や個別の感想が入っているため、完全に機械的ではなく人間らしいバラつきもある。したがって、0.6という中程度のスコアを付けた。</t>
+          <t>回答は明確な構造と箇条書き、定量的な具体例で組み立てられ、AIが生成するテンプレート的回答と類似している点が多い。一方で教材名やページ番号、個人の経験に基づく詳細な描写があり、完全に機械的ではないため、人間らしさを保っている。したがって、AIに近いが完全ではないと判断し、0.6と評価しました。</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>{
-  "summary": "内容面では、体験学習の定義と学生への具体的な影響を複数例で説明し、実際の授業活動を挙げている。構造面では、定義→影響→具体例→結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語と専門用語を混ぜつつ、定型表現（例：『…という意味です』、『…という活動です』）が多用され、語彙は比較的標準的で人間らしいバラつきはあるものの、テンプレート的なパターンが見られる。",
+  "summary": "内容面では「体験学習」の定義を明確に提示し、学生への影響を複数の具体例（科学実験、植樹活動など）で説明。構造面は導入・定義・影響の箇条書き・具体事例・活動設計・結論という論理的段落構成。文体はフォーマルで丁寧ながらも、箇条書きや番号付きリストを多用し、学術的語彙と実際の教材・ページ番号などを引用している。",
   "ai_template_likeness": 0.6,
-  "comment": "回答は定義・例・結論という典型的な構成を持ち、語彙や表現が標準化されている点でAIが生成しやすいパターンに近い。だが、具体的な授業例や個別の感想が入っているため、完全に機械的ではなく人間らしいバラつきもある。したがって、0.6という中程度のスコアを付けた。"
+  "comment": "回答は明確な構造と箇条書き、定量的な具体例で組み立てられ、AIが生成するテンプレート的回答と類似している点が多い。一方で教材名やページ番号、個人の経験に基づく詳細な描写があり、完全に機械的ではないため、人間らしさを保っている。したがって、AIに近いが完全ではないと判断し、0.6と評価しました。"
 }</t>
         </is>
       </c>
@@ -564,20 +564,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>このクラスターの回答は、学習活動の企画と実施手順を詳細に記述している。内容面では、具体的な課題設定、活動の流れ、評価基準、育成したいスキル・能力の説明が盛り込まれている。構造面では、導入・本体・まとめの三部構成が明確で、段落ごとに目的・手順・評価・反省といった論理的な展開が見られる。文体面では、説明的かつ丁寧語が多用され、専門用語や定型表現（例：『活動の目的』、『評価項目』）が頻出し、やや公式的な印象を与える。</t>
+          <t>このクラスターの回答は、まず活動の具体的な内容を示し、次にその活動を通じて育てたいスキルや能力を列挙している。構造は導入・活動説明・スキル・学習効果の順で、箇条書きや段落で分かりやすく整理されている。文体は丁寧で説明的だが、個々の例や実践的なアドバイスが入ることで人間らしいバラつきが見られる。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>回答は構造化されており、テンプレート的なフレーズが多いものの、具体的な事例や個別の工夫が含まれているため、完全にAI生成のような単調さは見られない。したがって、AIテンプレっぽさは中程度（0.4）と評価した。</t>
+          <t>AIのテンプレート回答は一般的で網羅的な構成と抽象的な説明が特徴だが、このクラスターは具体例や個別の活動手順、学生の反応に関する記述が多く、人間が書いた実際の授業計画に近い。従ってAIっぽさは低めで、0.4と評価した。</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>{
-  "summary": "このクラスターの回答は、学習活動の企画と実施手順を詳細に記述している。内容面では、具体的な課題設定、活動の流れ、評価基準、育成したいスキル・能力の説明が盛り込まれている。構造面では、導入・本体・まとめの三部構成が明確で、段落ごとに目的・手順・評価・反省といった論理的な展開が見られる。文体面では、説明的かつ丁寧語が多用され、専門用語や定型表現（例：『活動の目的』、『評価項目』）が頻出し、やや公式的な印象を与える。",
+  "summary": "このクラスターの回答は、まず活動の具体的な内容を示し、次にその活動を通じて育てたいスキルや能力を列挙している。構造は導入・活動説明・スキル・学習効果の順で、箇条書きや段落で分かりやすく整理されている。文体は丁寧で説明的だが、個々の例や実践的なアドバイスが入ることで人間らしいバラつきが見られる。",
   "ai_template_likeness": 0.4,
-  "comment": "回答は構造化されており、テンプレート的なフレーズが多いものの、具体的な事例や個別の工夫が含まれているため、完全にAI生成のような単調さは見られない。したがって、AIテンプレっぽさは中程度（0.4）と評価した。"
+  "comment": "AIのテンプレート回答は一般的で網羅的な構成と抽象的な説明が特徴だが、このクラスターは具体例や個別の活動手順、学生の反応に関する記述が多く、人間が書いた実際の授業計画に近い。従ってAIっぽさは低めで、0.4と評価した。"
 }</t>
         </is>
       </c>
@@ -601,20 +601,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>このクラスターの回答は、学習活動の企画と実施手順を詳細に記述している。内容面では、具体的な課題設定、活動の流れ、評価基準、育成したいスキル・能力の説明が盛り込まれている。構造面では、導入・本体・まとめの三部構成が明確で、段落ごとに目的・手順・評価・反省といった論理的な展開が見られる。文体面では、説明的かつ丁寧語が多用され、専門用語や定型表現（例：『活動の目的』、『評価項目』）が頻出し、やや公式的な印象を与える。</t>
+          <t>このクラスターの回答は、まず活動の具体的な内容を示し、次にその活動を通じて育てたいスキルや能力を列挙している。構造は導入・活動説明・スキル・学習効果の順で、箇条書きや段落で分かりやすく整理されている。文体は丁寧で説明的だが、個々の例や実践的なアドバイスが入ることで人間らしいバラつきが見られる。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>回答は構造化されており、テンプレート的なフレーズが多いものの、具体的な事例や個別の工夫が含まれているため、完全にAI生成のような単調さは見られない。したがって、AIテンプレっぽさは中程度（0.4）と評価した。</t>
+          <t>AIのテンプレート回答は一般的で網羅的な構成と抽象的な説明が特徴だが、このクラスターは具体例や個別の活動手順、学生の反応に関する記述が多く、人間が書いた実際の授業計画に近い。従ってAIっぽさは低めで、0.4と評価した。</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>{
-  "summary": "このクラスターの回答は、学習活動の企画と実施手順を詳細に記述している。内容面では、具体的な課題設定、活動の流れ、評価基準、育成したいスキル・能力の説明が盛り込まれている。構造面では、導入・本体・まとめの三部構成が明確で、段落ごとに目的・手順・評価・反省といった論理的な展開が見られる。文体面では、説明的かつ丁寧語が多用され、専門用語や定型表現（例：『活動の目的』、『評価項目』）が頻出し、やや公式的な印象を与える。",
+  "summary": "このクラスターの回答は、まず活動の具体的な内容を示し、次にその活動を通じて育てたいスキルや能力を列挙している。構造は導入・活動説明・スキル・学習効果の順で、箇条書きや段落で分かりやすく整理されている。文体は丁寧で説明的だが、個々の例や実践的なアドバイスが入ることで人間らしいバラつきが見られる。",
   "ai_template_likeness": 0.4,
-  "comment": "回答は構造化されており、テンプレート的なフレーズが多いものの、具体的な事例や個別の工夫が含まれているため、完全にAI生成のような単調さは見られない。したがって、AIテンプレっぽさは中程度（0.4）と評価した。"
+  "comment": "AIのテンプレート回答は一般的で網羅的な構成と抽象的な説明が特徴だが、このクラスターは具体例や個別の活動手順、学生の反応に関する記述が多く、人間が書いた実際の授業計画に近い。従ってAIっぽさは低めで、0.4と評価した。"
 }</t>
         </is>
       </c>
@@ -634,25 +634,21 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>内容面では、3メートルの高さからチョークを落としても割れない装置を作る課題に対し、指導計画、投げかける質問、使用材料・道具を具体的に示す。構造面では、導入・活動・評価の順に段落が分かれ、箇条書きや番号付きリストで論理的に展開されている。文体面では、丁寧語と説明的語彙が混在し、定型表現（例：『まずは…』『次に…』『最後に…』）が多用され、全体的にフォーマルで整理された印象を与える。</t>
+          <t>このクラスターの回答は、指導計画、質問、材料・道具を詳細にまとめ、章立て・番号付けと箇条書きで整理される構造を持つ。内容は実践的な授業設計と生徒への問い掛けに焦点を当て、教具・素材の具体例も挙げる。文体は丁寧で統一感があり、定型表現や箇条書きが多く、フォーマルかつテンプレート的な印象を与える。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>回答は構造化されており、箇条書きやテンプレート的なフレーズが頻出するため、AIが生成しやすいパターンに近い。だが、具体的な質問例や材料の選定、実際の授業進行の詳細が人間の経験に基づく具体性を示しており、完全にAIらしいとは言えない。したがって、0.65程度の似ていると評価した。</t>
+          <t>本回答は、章立て・番号付け、箇条書きといったテンプレート的構造と、汎用的な質問・表現を多用している点から、生成AIが出力する標準的な回答と類似度が高いと判断。したがって、0.85というスコアを付与した。</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{
-  "summary": "内容面では、3メートルの高さからチョークを落としても割れない装置を作る課題に対し、指導計画、投げかける質問、使用材料・道具を具体的に示す。構造面では、導入・活動・評価の順に段落が分かれ、箇条書きや番号付きリストで論理的に展開されている。文体面では、丁寧語と説明的語彙が混在し、定型表現（例：『まずは…』『次に…』『最後に…』）が多用され、全体的にフォーマルで整理された印象を与える。",
-  "ai_template_likeness": 0.65,
-  "comment": "回答は構造化されており、箇条書きやテンプレート的なフレーズが頻出するため、AIが生成しやすいパターンに近い。だが、具体的な質問例や材料の選定、実際の授業進行の詳細が人間の経験に基づく具体性を示しており、完全にAIらしいとは言えない。したがって、0.65程度の似ていると評価した。"
-}</t>
+          <t>{"summary":"このクラスターの回答は、指導計画、質問、材料・道具を詳細にまとめ、章立て・番号付けと箇条書きで整理される構造を持つ。内容は実践的な授業設計と生徒への問い掛けに焦点を当て、教具・素材の具体例も挙げる。文体は丁寧で統一感があり、定型表現や箇条書きが多く、フォーマルかつテンプレート的な印象を与える。","ai_template_likeness":0.85,"comment":"本回答は、章立て・番号付け、箇条書きといったテンプレート的構造と、汎用的な質問・表現を多用している点から、生成AIが出力する標準的な回答と類似度が高いと判断。したがって、0.85というスコアを付与した。"}</t>
         </is>
       </c>
     </row>
@@ -671,25 +667,21 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>内容面では、3メートルの高さからチョークを落としても割れない装置を作る課題に対し、指導計画、投げかける質問、使用材料・道具を具体的に示す。構造面では、導入・活動・評価の順に段落が分かれ、箇条書きや番号付きリストで論理的に展開されている。文体面では、丁寧語と説明的語彙が混在し、定型表現（例：『まずは…』『次に…』『最後に…』）が多用され、全体的にフォーマルで整理された印象を与える。</t>
+          <t>このクラスターの回答は、指導計画、質問、材料・道具を詳細にまとめ、章立て・番号付けと箇条書きで整理される構造を持つ。内容は実践的な授業設計と生徒への問い掛けに焦点を当て、教具・素材の具体例も挙げる。文体は丁寧で統一感があり、定型表現や箇条書きが多く、フォーマルかつテンプレート的な印象を与える。</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>回答は構造化されており、箇条書きやテンプレート的なフレーズが頻出するため、AIが生成しやすいパターンに近い。だが、具体的な質問例や材料の選定、実際の授業進行の詳細が人間の経験に基づく具体性を示しており、完全にAIらしいとは言えない。したがって、0.65程度の似ていると評価した。</t>
+          <t>本回答は、章立て・番号付け、箇条書きといったテンプレート的構造と、汎用的な質問・表現を多用している点から、生成AIが出力する標準的な回答と類似度が高いと判断。したがって、0.85というスコアを付与した。</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{
-  "summary": "内容面では、3メートルの高さからチョークを落としても割れない装置を作る課題に対し、指導計画、投げかける質問、使用材料・道具を具体的に示す。構造面では、導入・活動・評価の順に段落が分かれ、箇条書きや番号付きリストで論理的に展開されている。文体面では、丁寧語と説明的語彙が混在し、定型表現（例：『まずは…』『次に…』『最後に…』）が多用され、全体的にフォーマルで整理された印象を与える。",
-  "ai_template_likeness": 0.65,
-  "comment": "回答は構造化されており、箇条書きやテンプレート的なフレーズが頻出するため、AIが生成しやすいパターンに近い。だが、具体的な質問例や材料の選定、実際の授業進行の詳細が人間の経験に基づく具体性を示しており、完全にAIらしいとは言えない。したがって、0.65程度の似ていると評価した。"
-}</t>
+          <t>{"summary":"このクラスターの回答は、指導計画、質問、材料・道具を詳細にまとめ、章立て・番号付けと箇条書きで整理される構造を持つ。内容は実践的な授業設計と生徒への問い掛けに焦点を当て、教具・素材の具体例も挙げる。文体は丁寧で統一感があり、定型表現や箇条書きが多く、フォーマルかつテンプレート的な印象を与える。","ai_template_likeness":0.85,"comment":"本回答は、章立て・番号付け、箇条書きといったテンプレート的構造と、汎用的な質問・表現を多用している点から、生成AIが出力する標準的な回答と類似度が高いと判断。したがって、0.85というスコアを付与した。"}</t>
         </is>
       </c>
     </row>
@@ -708,24 +700,24 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>内容面では、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的な支援方法を提示し、例示の多様化、オープン質問、試行錯誤の奨励、努力の称賛といった要素を盛り込んでいる。構造面では、導入・方法・具体例・結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語を用いながらも、定型表現（例：『まずは…』『次に…』『そして…』）が多用され、語彙は比較的標準的で、個人の感情や経験に基づく表現は少ない。</t>
+          <t>クラスターの回答は、STEAM活動における生徒の不安緩和と創造性促進を具体的に示すことを主眼に置いており、主に「例を示す」代わりに多様なサンプル提示、オープンな質問で思考を誘導、試行錯誤を奨励、成果の評価を努力重視で行うという共通の実践法を列挙している。構造は導入→具体策①・②・③…という段落分けで、同じ語尾や接続語（「そのため」「さらに」「また」など）が多用され、論理展開は「まず～、次に～、最後に～」というテンプレート型。文体は丁寧語と一般語を混ぜ、専門用語は少なく、同じ定型表現（「例として」「～が重要」「～を行う」）が頻出する。</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>回答は構造が整っており、一般的な教育指導のテンプレートに沿った表現が多く見られるため、AIが生成したようなテンプレート的な雰囲気がある。だが、具体的な例や個別の提案が含まれている点、語彙の選択に多少の個性が見られるため、完全にAIらしいとは言えず、0.6程度の類似度と判断した。</t>
+          <t>回答は一連の定型パターン（導入＋具体策列挙＋まとめ）を踏襲しており、同じ語尾や接続語を繰り返す点がAI生成テキストに特徴的。語彙は限定的で、複数の回答が同じ構造・表現を共有しているため、完全に人間らしいバラつきは少なく、AIのテンプレートに近いと判断。</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>{
-  "summary": "内容面では、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的な支援方法を提示し、例示の多様化、オープン質問、試行錯誤の奨励、努力の称賛といった要素を盛り込んでいる。構造面では、導入・方法・具体例・結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語を用いながらも、定型表現（例：『まずは…』『次に…』『そして…』）が多用され、語彙は比較的標準的で、個人の感情や経験に基づく表現は少ない。",
-  "ai_template_likeness": 0.6,
-  "comment": "回答は構造が整っており、一般的な教育指導のテンプレートに沿った表現が多く見られるため、AIが生成したようなテンプレート的な雰囲気がある。だが、具体的な例や個別の提案が含まれている点、語彙の選択に多少の個性が見られるため、完全にAIらしいとは言えず、0.6程度の類似度と判断した。"
+  "summary": "クラスターの回答は、STEAM活動における生徒の不安緩和と創造性促進を具体的に示すことを主眼に置いており、主に「例を示す」代わりに多様なサンプル提示、オープンな質問で思考を誘導、試行錯誤を奨励、成果の評価を努力重視で行うという共通の実践法を列挙している。構造は導入→具体策①・②・③…という段落分けで、同じ語尾や接続語（「そのため」「さらに」「また」など）が多用され、論理展開は「まず～、次に～、最後に～」というテンプレート型。文体は丁寧語と一般語を混ぜ、専門用語は少なく、同じ定型表現（「例として」「～が重要」「～を行う」）が頻出する。",
+  "ai_template_likeness": 0.7,
+  "comment": "回答は一連の定型パターン（導入＋具体策列挙＋まとめ）を踏襲しており、同じ語尾や接続語を繰り返す点がAI生成テキストに特徴的。語彙は限定的で、複数の回答が同じ構造・表現を共有しているため、完全に人間らしいバラつきは少なく、AIのテンプレートに近いと判断。"
 }</t>
         </is>
       </c>
@@ -745,24 +737,24 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>内容面では、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的な支援方法を提示し、例示の多様化、オープン質問、試行錯誤の奨励、努力の称賛といった要素を盛り込んでいる。構造面では、導入・方法・具体例・結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語を用いながらも、定型表現（例：『まずは…』『次に…』『そして…』）が多用され、語彙は比較的標準的で、個人の感情や経験に基づく表現は少ない。</t>
+          <t>クラスターの回答は、STEAM活動における生徒の不安緩和と創造性促進を具体的に示すことを主眼に置いており、主に「例を示す」代わりに多様なサンプル提示、オープンな質問で思考を誘導、試行錯誤を奨励、成果の評価を努力重視で行うという共通の実践法を列挙している。構造は導入→具体策①・②・③…という段落分けで、同じ語尾や接続語（「そのため」「さらに」「また」など）が多用され、論理展開は「まず～、次に～、最後に～」というテンプレート型。文体は丁寧語と一般語を混ぜ、専門用語は少なく、同じ定型表現（「例として」「～が重要」「～を行う」）が頻出する。</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>回答は構造が整っており、一般的な教育指導のテンプレートに沿った表現が多く見られるため、AIが生成したようなテンプレート的な雰囲気がある。だが、具体的な例や個別の提案が含まれている点、語彙の選択に多少の個性が見られるため、完全にAIらしいとは言えず、0.6程度の類似度と判断した。</t>
+          <t>回答は一連の定型パターン（導入＋具体策列挙＋まとめ）を踏襲しており、同じ語尾や接続語を繰り返す点がAI生成テキストに特徴的。語彙は限定的で、複数の回答が同じ構造・表現を共有しているため、完全に人間らしいバラつきは少なく、AIのテンプレートに近いと判断。</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>{
-  "summary": "内容面では、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的な支援方法を提示し、例示の多様化、オープン質問、試行錯誤の奨励、努力の称賛といった要素を盛り込んでいる。構造面では、導入・方法・具体例・結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語を用いながらも、定型表現（例：『まずは…』『次に…』『そして…』）が多用され、語彙は比較的標準的で、個人の感情や経験に基づく表現は少ない。",
-  "ai_template_likeness": 0.6,
-  "comment": "回答は構造が整っており、一般的な教育指導のテンプレートに沿った表現が多く見られるため、AIが生成したようなテンプレート的な雰囲気がある。だが、具体的な例や個別の提案が含まれている点、語彙の選択に多少の個性が見られるため、完全にAIらしいとは言えず、0.6程度の類似度と判断した。"
+  "summary": "クラスターの回答は、STEAM活動における生徒の不安緩和と創造性促進を具体的に示すことを主眼に置いており、主に「例を示す」代わりに多様なサンプル提示、オープンな質問で思考を誘導、試行錯誤を奨励、成果の評価を努力重視で行うという共通の実践法を列挙している。構造は導入→具体策①・②・③…という段落分けで、同じ語尾や接続語（「そのため」「さらに」「また」など）が多用され、論理展開は「まず～、次に～、最後に～」というテンプレート型。文体は丁寧語と一般語を混ぜ、専門用語は少なく、同じ定型表現（「例として」「～が重要」「～を行う」）が頻出する。",
+  "ai_template_likeness": 0.7,
+  "comment": "回答は一連の定型パターン（導入＋具体策列挙＋まとめ）を踏襲しており、同じ語尾や接続語を繰り返す点がAI生成テキストに特徴的。語彙は限定的で、複数の回答が同じ構造・表現を共有しているため、完全に人間らしいバラつきは少なく、AIのテンプレートに近いと判断。"
 }</t>
         </is>
       </c>
@@ -786,17 +778,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>このクラスターの回答は、リサイクル素材を使った製品作成とそれを基にした授業設計を具体的に示している。内容は、活動の目的・材料・手順・評価ポイントを明確に列挙し、学年・科目に合わせた実践的な授業構成を提示している。構造は見出し・番号付きリスト・段落で整理され、論理的に「目的→材料・手順→活動の流れ→評価・拡張」と進む。文体は丁寧で説明的だが、定型表現（「まず」「次に」「最後に」など）が多用され、語彙は教育・環境関連の専門語と日常語が混在している。</t>
+          <t>内容面では、リサイクル素材を使ったモデリングや製品作成の具体的手順、材料リスト、目的・評価項目が網羅されている。構造面では見出しと箇条書きを多用し、目標・材料・手順・評価などが順序立てて整理されている。文体面では公式で教育的な語彙が多く、定型表現（「目的」「活動」「手順」「評価」など）が頻出し、自然言語よりもテンプレート感が強い。</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>回答は段落構成や箇条書き、手順の順序などがテンプレート的に整っている点がAI生成のように見えるが、具体的な素材例や授業の評価項目、学年・科目への適合性などは個別に考慮されており、完全に機械的ではない。したがって、AIテンプレートっぽさは中程度（0.6）と評価した。</t>
+          <t>回答は見出し＋箇条書きで「目的」「材料」「手順」「評価」などの標準構造を踏襲しており、AIが生成するテンプレート的なレポートに近い点が多い。とはいえ、具体的な素材名や手順、実例の挿入など人間の手作業で補完した要素があるため、完全にAI風ではなく、ある程度人間らしさも残っている。したがって、0.6の中間的なスコアを付けた。</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{"summary":"このクラスターの回答は、リサイクル素材を使った製品作成とそれを基にした授業設計を具体的に示している。内容は、活動の目的・材料・手順・評価ポイントを明確に列挙し、学年・科目に合わせた実践的な授業構成を提示している。構造は見出し・番号付きリスト・段落で整理され、論理的に「目的→材料・手順→活動の流れ→評価・拡張」と進む。文体は丁寧で説明的だが、定型表現（「まず」「次に」「最後に」など）が多用され、語彙は教育・環境関連の専門語と日常語が混在している。","ai_template_likeness":0.6,"comment":"回答は段落構成や箇条書き、手順の順序などがテンプレート的に整っている点がAI生成のように見えるが、具体的な素材例や授業の評価項目、学年・科目への適合性などは個別に考慮されており、完全に機械的ではない。したがって、AIテンプレートっぽさは中程度（0.6）と評価した。"}</t>
+          <t>{
+  "summary": "内容面では、リサイクル素材を使ったモデリングや製品作成の具体的手順、材料リスト、目的・評価項目が網羅されている。構造面では見出しと箇条書きを多用し、目標・材料・手順・評価などが順序立てて整理されている。文体面では公式で教育的な語彙が多く、定型表現（「目的」「活動」「手順」「評価」など）が頻出し、自然言語よりもテンプレート感が強い。",
+  "ai_template_likeness": 0.6,
+  "comment": "回答は見出し＋箇条書きで「目的」「材料」「手順」「評価」などの標準構造を踏襲しており、AIが生成するテンプレート的なレポートに近い点が多い。とはいえ、具体的な素材名や手順、実例の挿入など人間の手作業で補完した要素があるため、完全にAI風ではなく、ある程度人間らしさも残っている。したがって、0.6の中間的なスコアを付けた。"
+}</t>
         </is>
       </c>
     </row>
@@ -819,17 +815,21 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>このクラスターの回答は、リサイクル素材を使った製品作成とそれを基にした授業設計を具体的に示している。内容は、活動の目的・材料・手順・評価ポイントを明確に列挙し、学年・科目に合わせた実践的な授業構成を提示している。構造は見出し・番号付きリスト・段落で整理され、論理的に「目的→材料・手順→活動の流れ→評価・拡張」と進む。文体は丁寧で説明的だが、定型表現（「まず」「次に」「最後に」など）が多用され、語彙は教育・環境関連の専門語と日常語が混在している。</t>
+          <t>内容面では、リサイクル素材を使ったモデリングや製品作成の具体的手順、材料リスト、目的・評価項目が網羅されている。構造面では見出しと箇条書きを多用し、目標・材料・手順・評価などが順序立てて整理されている。文体面では公式で教育的な語彙が多く、定型表現（「目的」「活動」「手順」「評価」など）が頻出し、自然言語よりもテンプレート感が強い。</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>回答は段落構成や箇条書き、手順の順序などがテンプレート的に整っている点がAI生成のように見えるが、具体的な素材例や授業の評価項目、学年・科目への適合性などは個別に考慮されており、完全に機械的ではない。したがって、AIテンプレートっぽさは中程度（0.6）と評価した。</t>
+          <t>回答は見出し＋箇条書きで「目的」「材料」「手順」「評価」などの標準構造を踏襲しており、AIが生成するテンプレート的なレポートに近い点が多い。とはいえ、具体的な素材名や手順、実例の挿入など人間の手作業で補完した要素があるため、完全にAI風ではなく、ある程度人間らしさも残っている。したがって、0.6の中間的なスコアを付けた。</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{"summary":"このクラスターの回答は、リサイクル素材を使った製品作成とそれを基にした授業設計を具体的に示している。内容は、活動の目的・材料・手順・評価ポイントを明確に列挙し、学年・科目に合わせた実践的な授業構成を提示している。構造は見出し・番号付きリスト・段落で整理され、論理的に「目的→材料・手順→活動の流れ→評価・拡張」と進む。文体は丁寧で説明的だが、定型表現（「まず」「次に」「最後に」など）が多用され、語彙は教育・環境関連の専門語と日常語が混在している。","ai_template_likeness":0.6,"comment":"回答は段落構成や箇条書き、手順の順序などがテンプレート的に整っている点がAI生成のように見えるが、具体的な素材例や授業の評価項目、学年・科目への適合性などは個別に考慮されており、完全に機械的ではない。したがって、AIテンプレートっぽさは中程度（0.6）と評価した。"}</t>
+          <t>{
+  "summary": "内容面では、リサイクル素材を使ったモデリングや製品作成の具体的手順、材料リスト、目的・評価項目が網羅されている。構造面では見出しと箇条書きを多用し、目標・材料・手順・評価などが順序立てて整理されている。文体面では公式で教育的な語彙が多く、定型表現（「目的」「活動」「手順」「評価」など）が頻出し、自然言語よりもテンプレート感が強い。",
+  "ai_template_likeness": 0.6,
+  "comment": "回答は見出し＋箇条書きで「目的」「材料」「手順」「評価」などの標準構造を踏襲しており、AIが生成するテンプレート的なレポートに近い点が多い。とはいえ、具体的な素材名や手順、実例の挿入など人間の手作業で補完した要素があるため、完全にAI風ではなく、ある程度人間らしさも残っている。したがって、0.6の中間的なスコアを付けた。"
+}</t>
         </is>
       </c>
     </row>
@@ -898,20 +898,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>内容面では、体験学習の定義と学生への具体的な影響を複数例で説明し、実際の授業活動を挙げている。構造面では、定義→影響→具体例→結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語と専門用語を混ぜつつ、定型表現（例：『…という意味です』、『…という活動です』）が多用され、語彙は比較的標準的で人間らしいバラつきはあるものの、テンプレート的なパターンが見られる。</t>
+          <t>内容面では「体験学習」の定義を明確に提示し、学生への影響を複数の具体例（科学実験、植樹活動など）で説明。構造面は導入・定義・影響の箇条書き・具体事例・活動設計・結論という論理的段落構成。文体はフォーマルで丁寧ながらも、箇条書きや番号付きリストを多用し、学術的語彙と実際の教材・ページ番号などを引用している。</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>回答は定義・例・結論という典型的な構成を持ち、語彙や表現が標準化されている点でAIが生成しやすいパターンに近い。だが、具体的な授業例や個別の感想が入っているため、完全に機械的ではなく人間らしいバラつきもある。したがって、0.6という中程度のスコアを付けた。</t>
+          <t>回答は明確な構造と箇条書き、定量的な具体例で組み立てられ、AIが生成するテンプレート的回答と類似している点が多い。一方で教材名やページ番号、個人の経験に基づく詳細な描写があり、完全に機械的ではないため、人間らしさを保っている。したがって、AIに近いが完全ではないと判断し、0.6と評価しました。</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>{
-  "summary": "内容面では、体験学習の定義と学生への具体的な影響を複数例で説明し、実際の授業活動を挙げている。構造面では、定義→影響→具体例→結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語と専門用語を混ぜつつ、定型表現（例：『…という意味です』、『…という活動です』）が多用され、語彙は比較的標準的で人間らしいバラつきはあるものの、テンプレート的なパターンが見られる。",
+  "summary": "内容面では「体験学習」の定義を明確に提示し、学生への影響を複数の具体例（科学実験、植樹活動など）で説明。構造面は導入・定義・影響の箇条書き・具体事例・活動設計・結論という論理的段落構成。文体はフォーマルで丁寧ながらも、箇条書きや番号付きリストを多用し、学術的語彙と実際の教材・ページ番号などを引用している。",
   "ai_template_likeness": 0.6,
-  "comment": "回答は定義・例・結論という典型的な構成を持ち、語彙や表現が標準化されている点でAIが生成しやすいパターンに近い。だが、具体的な授業例や個別の感想が入っているため、完全に機械的ではなく人間らしいバラつきもある。したがって、0.6という中程度のスコアを付けた。"
+  "comment": "回答は明確な構造と箇条書き、定量的な具体例で組み立てられ、AIが生成するテンプレート的回答と類似している点が多い。一方で教材名やページ番号、個人の経験に基づく詳細な描写があり、完全に機械的ではないため、人間らしさを保っている。したがって、AIに近いが完全ではないと判断し、0.6と評価しました。"
 }</t>
         </is>
       </c>
@@ -930,20 +930,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>このクラスターの回答は、学習活動の企画と実施手順を詳細に記述している。内容面では、具体的な課題設定、活動の流れ、評価基準、育成したいスキル・能力の説明が盛り込まれている。構造面では、導入・本体・まとめの三部構成が明確で、段落ごとに目的・手順・評価・反省といった論理的な展開が見られる。文体面では、説明的かつ丁寧語が多用され、専門用語や定型表現（例：『活動の目的』、『評価項目』）が頻出し、やや公式的な印象を与える。</t>
+          <t>このクラスターの回答は、まず活動の具体的な内容を示し、次にその活動を通じて育てたいスキルや能力を列挙している。構造は導入・活動説明・スキル・学習効果の順で、箇条書きや段落で分かりやすく整理されている。文体は丁寧で説明的だが、個々の例や実践的なアドバイスが入ることで人間らしいバラつきが見られる。</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>回答は構造化されており、テンプレート的なフレーズが多いものの、具体的な事例や個別の工夫が含まれているため、完全にAI生成のような単調さは見られない。したがって、AIテンプレっぽさは中程度（0.4）と評価した。</t>
+          <t>AIのテンプレート回答は一般的で網羅的な構成と抽象的な説明が特徴だが、このクラスターは具体例や個別の活動手順、学生の反応に関する記述が多く、人間が書いた実際の授業計画に近い。従ってAIっぽさは低めで、0.4と評価した。</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>{
-  "summary": "このクラスターの回答は、学習活動の企画と実施手順を詳細に記述している。内容面では、具体的な課題設定、活動の流れ、評価基準、育成したいスキル・能力の説明が盛り込まれている。構造面では、導入・本体・まとめの三部構成が明確で、段落ごとに目的・手順・評価・反省といった論理的な展開が見られる。文体面では、説明的かつ丁寧語が多用され、専門用語や定型表現（例：『活動の目的』、『評価項目』）が頻出し、やや公式的な印象を与える。",
+  "summary": "このクラスターの回答は、まず活動の具体的な内容を示し、次にその活動を通じて育てたいスキルや能力を列挙している。構造は導入・活動説明・スキル・学習効果の順で、箇条書きや段落で分かりやすく整理されている。文体は丁寧で説明的だが、個々の例や実践的なアドバイスが入ることで人間らしいバラつきが見られる。",
   "ai_template_likeness": 0.4,
-  "comment": "回答は構造化されており、テンプレート的なフレーズが多いものの、具体的な事例や個別の工夫が含まれているため、完全にAI生成のような単調さは見られない。したがって、AIテンプレっぽさは中程度（0.4）と評価した。"
+  "comment": "AIのテンプレート回答は一般的で網羅的な構成と抽象的な説明が特徴だが、このクラスターは具体例や個別の活動手順、学生の反応に関する記述が多く、人間が書いた実際の授業計画に近い。従ってAIっぽさは低めで、0.4と評価した。"
 }</t>
         </is>
       </c>
@@ -958,25 +958,21 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>内容面では、3メートルの高さからチョークを落としても割れない装置を作る課題に対し、指導計画、投げかける質問、使用材料・道具を具体的に示す。構造面では、導入・活動・評価の順に段落が分かれ、箇条書きや番号付きリストで論理的に展開されている。文体面では、丁寧語と説明的語彙が混在し、定型表現（例：『まずは…』『次に…』『最後に…』）が多用され、全体的にフォーマルで整理された印象を与える。</t>
+          <t>このクラスターの回答は、指導計画、質問、材料・道具を詳細にまとめ、章立て・番号付けと箇条書きで整理される構造を持つ。内容は実践的な授業設計と生徒への問い掛けに焦点を当て、教具・素材の具体例も挙げる。文体は丁寧で統一感があり、定型表現や箇条書きが多く、フォーマルかつテンプレート的な印象を与える。</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>回答は構造化されており、箇条書きやテンプレート的なフレーズが頻出するため、AIが生成しやすいパターンに近い。だが、具体的な質問例や材料の選定、実際の授業進行の詳細が人間の経験に基づく具体性を示しており、完全にAIらしいとは言えない。したがって、0.65程度の似ていると評価した。</t>
+          <t>本回答は、章立て・番号付け、箇条書きといったテンプレート的構造と、汎用的な質問・表現を多用している点から、生成AIが出力する標準的な回答と類似度が高いと判断。したがって、0.85というスコアを付与した。</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{
-  "summary": "内容面では、3メートルの高さからチョークを落としても割れない装置を作る課題に対し、指導計画、投げかける質問、使用材料・道具を具体的に示す。構造面では、導入・活動・評価の順に段落が分かれ、箇条書きや番号付きリストで論理的に展開されている。文体面では、丁寧語と説明的語彙が混在し、定型表現（例：『まずは…』『次に…』『最後に…』）が多用され、全体的にフォーマルで整理された印象を与える。",
-  "ai_template_likeness": 0.65,
-  "comment": "回答は構造化されており、箇条書きやテンプレート的なフレーズが頻出するため、AIが生成しやすいパターンに近い。だが、具体的な質問例や材料の選定、実際の授業進行の詳細が人間の経験に基づく具体性を示しており、完全にAIらしいとは言えない。したがって、0.65程度の似ていると評価した。"
-}</t>
+          <t>{"summary":"このクラスターの回答は、指導計画、質問、材料・道具を詳細にまとめ、章立て・番号付けと箇条書きで整理される構造を持つ。内容は実践的な授業設計と生徒への問い掛けに焦点を当て、教具・素材の具体例も挙げる。文体は丁寧で統一感があり、定型表現や箇条書きが多く、フォーマルかつテンプレート的な印象を与える。","ai_template_likeness":0.85,"comment":"本回答は、章立て・番号付け、箇条書きといったテンプレート的構造と、汎用的な質問・表現を多用している点から、生成AIが出力する標準的な回答と類似度が高いと判断。したがって、0.85というスコアを付与した。"}</t>
         </is>
       </c>
     </row>
@@ -990,24 +986,24 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>内容面では、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的な支援方法を提示し、例示の多様化、オープン質問、試行錯誤の奨励、努力の称賛といった要素を盛り込んでいる。構造面では、導入・方法・具体例・結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語を用いながらも、定型表現（例：『まずは…』『次に…』『そして…』）が多用され、語彙は比較的標準的で、個人の感情や経験に基づく表現は少ない。</t>
+          <t>クラスターの回答は、STEAM活動における生徒の不安緩和と創造性促進を具体的に示すことを主眼に置いており、主に「例を示す」代わりに多様なサンプル提示、オープンな質問で思考を誘導、試行錯誤を奨励、成果の評価を努力重視で行うという共通の実践法を列挙している。構造は導入→具体策①・②・③…という段落分けで、同じ語尾や接続語（「そのため」「さらに」「また」など）が多用され、論理展開は「まず～、次に～、最後に～」というテンプレート型。文体は丁寧語と一般語を混ぜ、専門用語は少なく、同じ定型表現（「例として」「～が重要」「～を行う」）が頻出する。</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>回答は構造が整っており、一般的な教育指導のテンプレートに沿った表現が多く見られるため、AIが生成したようなテンプレート的な雰囲気がある。だが、具体的な例や個別の提案が含まれている点、語彙の選択に多少の個性が見られるため、完全にAIらしいとは言えず、0.6程度の類似度と判断した。</t>
+          <t>回答は一連の定型パターン（導入＋具体策列挙＋まとめ）を踏襲しており、同じ語尾や接続語を繰り返す点がAI生成テキストに特徴的。語彙は限定的で、複数の回答が同じ構造・表現を共有しているため、完全に人間らしいバラつきは少なく、AIのテンプレートに近いと判断。</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>{
-  "summary": "内容面では、STEAM活動における生徒の不安を和らげつつ創造性を促す具体的な支援方法を提示し、例示の多様化、オープン質問、試行錯誤の奨励、努力の称賛といった要素を盛り込んでいる。構造面では、導入・方法・具体例・結論という順序で段落が整理され、論理的に展開されている。文体面では丁寧語を用いながらも、定型表現（例：『まずは…』『次に…』『そして…』）が多用され、語彙は比較的標準的で、個人の感情や経験に基づく表現は少ない。",
-  "ai_template_likeness": 0.6,
-  "comment": "回答は構造が整っており、一般的な教育指導のテンプレートに沿った表現が多く見られるため、AIが生成したようなテンプレート的な雰囲気がある。だが、具体的な例や個別の提案が含まれている点、語彙の選択に多少の個性が見られるため、完全にAIらしいとは言えず、0.6程度の類似度と判断した。"
+  "summary": "クラスターの回答は、STEAM活動における生徒の不安緩和と創造性促進を具体的に示すことを主眼に置いており、主に「例を示す」代わりに多様なサンプル提示、オープンな質問で思考を誘導、試行錯誤を奨励、成果の評価を努力重視で行うという共通の実践法を列挙している。構造は導入→具体策①・②・③…という段落分けで、同じ語尾や接続語（「そのため」「さらに」「また」など）が多用され、論理展開は「まず～、次に～、最後に～」というテンプレート型。文体は丁寧語と一般語を混ぜ、専門用語は少なく、同じ定型表現（「例として」「～が重要」「～を行う」）が頻出する。",
+  "ai_template_likeness": 0.7,
+  "comment": "回答は一連の定型パターン（導入＋具体策列挙＋まとめ）を踏襲しており、同じ語尾や接続語を繰り返す点がAI生成テキストに特徴的。語彙は限定的で、複数の回答が同じ構造・表現を共有しているため、完全に人間らしいバラつきは少なく、AIのテンプレートに近いと判断。"
 }</t>
         </is>
       </c>
@@ -1026,17 +1022,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>このクラスターの回答は、リサイクル素材を使った製品作成とそれを基にした授業設計を具体的に示している。内容は、活動の目的・材料・手順・評価ポイントを明確に列挙し、学年・科目に合わせた実践的な授業構成を提示している。構造は見出し・番号付きリスト・段落で整理され、論理的に「目的→材料・手順→活動の流れ→評価・拡張」と進む。文体は丁寧で説明的だが、定型表現（「まず」「次に」「最後に」など）が多用され、語彙は教育・環境関連の専門語と日常語が混在している。</t>
+          <t>内容面では、リサイクル素材を使ったモデリングや製品作成の具体的手順、材料リスト、目的・評価項目が網羅されている。構造面では見出しと箇条書きを多用し、目標・材料・手順・評価などが順序立てて整理されている。文体面では公式で教育的な語彙が多く、定型表現（「目的」「活動」「手順」「評価」など）が頻出し、自然言語よりもテンプレート感が強い。</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>回答は段落構成や箇条書き、手順の順序などがテンプレート的に整っている点がAI生成のように見えるが、具体的な素材例や授業の評価項目、学年・科目への適合性などは個別に考慮されており、完全に機械的ではない。したがって、AIテンプレートっぽさは中程度（0.6）と評価した。</t>
+          <t>回答は見出し＋箇条書きで「目的」「材料」「手順」「評価」などの標準構造を踏襲しており、AIが生成するテンプレート的なレポートに近い点が多い。とはいえ、具体的な素材名や手順、実例の挿入など人間の手作業で補完した要素があるため、完全にAI風ではなく、ある程度人間らしさも残っている。したがって、0.6の中間的なスコアを付けた。</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{"summary":"このクラスターの回答は、リサイクル素材を使った製品作成とそれを基にした授業設計を具体的に示している。内容は、活動の目的・材料・手順・評価ポイントを明確に列挙し、学年・科目に合わせた実践的な授業構成を提示している。構造は見出し・番号付きリスト・段落で整理され、論理的に「目的→材料・手順→活動の流れ→評価・拡張」と進む。文体は丁寧で説明的だが、定型表現（「まず」「次に」「最後に」など）が多用され、語彙は教育・環境関連の専門語と日常語が混在している。","ai_template_likeness":0.6,"comment":"回答は段落構成や箇条書き、手順の順序などがテンプレート的に整っている点がAI生成のように見えるが、具体的な素材例や授業の評価項目、学年・科目への適合性などは個別に考慮されており、完全に機械的ではない。したがって、AIテンプレートっぽさは中程度（0.6）と評価した。"}</t>
+          <t>{
+  "summary": "内容面では、リサイクル素材を使ったモデリングや製品作成の具体的手順、材料リスト、目的・評価項目が網羅されている。構造面では見出しと箇条書きを多用し、目標・材料・手順・評価などが順序立てて整理されている。文体面では公式で教育的な語彙が多く、定型表現（「目的」「活動」「手順」「評価」など）が頻出し、自然言語よりもテンプレート感が強い。",
+  "ai_template_likeness": 0.6,
+  "comment": "回答は見出し＋箇条書きで「目的」「材料」「手順」「評価」などの標準構造を踏襲しており、AIが生成するテンプレート的なレポートに近い点が多い。とはいえ、具体的な素材名や手順、実例の挿入など人間の手作業で補完した要素があるため、完全にAI風ではなく、ある程度人間らしさも残っている。したがって、0.6の中間的なスコアを付けた。"
+}</t>
         </is>
       </c>
     </row>
